--- a/BTS SIO- Tableau de synthese - Epreuve E4.xlsx
+++ b/BTS SIO- Tableau de synthese - Epreuve E4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPD\Desktop\SESSION 2024\ORGANISATION CALENDRIER\annexes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\OneDrive\Bureau\Portfolio_IsmailAbou-zaid_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D91B85024F87DC11A65C742FA0B2E06371A4FC3B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1651141-8EAA-4D0F-BE2E-152A93724827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23010" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -140,6 +134,12 @@
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
+  <si>
+    <t>NOM et prénom : Abou-zaid Ismail</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://abouzaid-ismail-portfolio.netlify.app/#home</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -675,15 +675,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,30 +739,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,10 +1052,10 @@
   <dimension ref="A1:AQ81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
@@ -1064,125 +1064,125 @@
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="19" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="D7" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1220,17 +1220,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="25" t="s">
-        <v>24</v>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>22</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1267,7 +1267,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="14"/>
@@ -1312,7 +1312,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
@@ -1357,7 +1357,7 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
@@ -1402,7 +1402,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
@@ -1447,7 +1447,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
@@ -1492,7 +1492,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
@@ -1537,7 +1537,7 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
@@ -1582,7 +1582,7 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
@@ -1627,7 +1627,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
@@ -1672,7 +1672,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
@@ -1717,17 +1717,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="28" t="s">
-        <v>25</v>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>23</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1764,7 +1764,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
@@ -1809,7 +1809,7 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="15"/>
@@ -1854,7 +1854,7 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="15"/>
@@ -1899,7 +1899,7 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="15"/>
@@ -1944,7 +1944,7 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="15"/>
@@ -1989,7 +1989,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="15"/>
@@ -2034,7 +2034,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="15"/>
@@ -2079,17 +2079,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="28" t="s">
-        <v>26</v>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>24</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2126,7 +2126,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="15"/>
@@ -2171,7 +2171,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="15"/>
@@ -2216,7 +2216,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="15"/>
@@ -2261,7 +2261,7 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="15"/>
@@ -2306,7 +2306,7 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="15"/>
@@ -2351,7 +2351,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="15"/>
@@ -2396,7 +2396,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="17"/>
@@ -2441,7 +2441,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="15">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2486,59 +2486,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1"/>
-    <row r="37" spans="1:43" customFormat="1"/>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2546,6 +2541,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2556,17 +2556,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E864BE9A0355549A797FAD08DD59ACF" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0d24270863b5e53121a7787e4e368767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4d09e2d-13db-4014-adac-1fd4c63dba3e" xmlns:ns3="47a76c4d-629b-4983-b3be-1ba004174f0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="258d64f1938a66bde7c68e54120e8cca" ns2:_="" ns3:_="">
     <xsd:import namespace="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
@@ -2801,6 +2790,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2811,13 +2811,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B35917A-8D56-4F54-9F49-25F0073B264F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
+    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B35917A-8D56-4F54-9F49-25F0073B264F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
+    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BTS SIO- Tableau de synthese - Epreuve E4.xlsx
+++ b/BTS SIO- Tableau de synthese - Epreuve E4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismai\OneDrive\Bureau\Portfolio_IsmailAbou-zaid_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488D13A9-A671-454A-9579-8A8757457262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F3D0B5-2F92-44B9-B43C-50442BE412C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -708,38 +708,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -774,8 +753,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -797,106 +797,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>476250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Connecteur droit 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{480CF3B7-9049-964F-2BDD-C97BAB231BCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6848475" y="13763625"/>
-          <a:ext cx="1276350" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Connecteur droit 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD7C6EA-410B-7EC6-6245-27542406FFA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6848475" y="13792200"/>
-          <a:ext cx="1266825" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2852,70 +2752,70 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.42578125" customWidth="1"/>
     <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="44"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -2927,22 +2827,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2965,8 +2865,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="20" t="s">
         <v>15</v>
       </c>
@@ -3022,16 +2922,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -3078,7 +2978,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9"/>
@@ -3127,7 +3027,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="44"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10"/>
@@ -3531,16 +3431,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -3901,16 +3801,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -4355,6 +4255,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -4362,11 +4267,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4378,26 +4278,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E864BE9A0355549A797FAD08DD59ACF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aea1da0f845b076f82945d1cdc94127c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4d09e2d-13db-4014-adac-1fd4c63dba3e" xmlns:ns3="47a76c4d-629b-4983-b3be-1ba004174f0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8057c77f795506f4227b835189289c90" ns2:_="" ns3:_="">
     <xsd:import namespace="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
@@ -4632,26 +4512,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
-    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4d09e2d-13db-4014-adac-1fd4c63dba3e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="47a76c4d-629b-4983-b3be-1ba004174f0a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE587ACA-4C70-4EFB-9767-A86DF8433493}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4668,4 +4549,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4209C33D-ED08-404F-9B7A-29CD40C2ACA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1FC233-9ECF-4A55-86D4-136E16072842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b4d09e2d-13db-4014-adac-1fd4c63dba3e"/>
+    <ds:schemaRef ds:uri="47a76c4d-629b-4983-b3be-1ba004174f0a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>